--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.97</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270008</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发核心精选混合</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>27.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -650,25 +710,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.27</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>270008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>广发核心精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.34</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -762,25 +862,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>86.55</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.26</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.82</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.1</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.98</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,1059 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9835</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2707,7 +2708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2718,17 +2719,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2738,14 +2759,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.45</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2754,14 +2797,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.82</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2770,14 +2835,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.1</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2786,14 +2873,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.98</v>
       </c>
     </row>
     <row r="6">
@@ -2802,13 +2911,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3030,7 +3031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3041,17 +3042,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3061,14 +3082,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.32</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3077,14 +3120,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.45</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3093,14 +3158,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.82</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3109,14 +3196,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.1</v>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3125,14 +3234,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.98</v>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3141,13 +3272,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>5.23</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>3.32</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>12.45</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>4.82</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.1</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.98</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -600,6 +617,2188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5887</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6686</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +3860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2777,7 +4976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3175,7 +5374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3421,7 +5620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3781,7 +5980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603997-继峰股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>9.880000000000001</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>5.23</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>3.32</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>12.45</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>4.82</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.1</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>3.98</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -616,7 +633,3385 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2661</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8527</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7704</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>71.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010229</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）D</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>167003</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010228</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +6193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +6933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3860,7 +7255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4976,7 +8371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5374,7 +8769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5620,7 +9015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5978,136 +9373,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6142</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4194</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>